--- a/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,73</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-0,41; 6,66</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 14,07</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 7,19</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 10,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 5,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,38; 10,99</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>76,06%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>239,82%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>75,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,49%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-9,35; 278,0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79,03; 564,01</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-33,15; 130,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 182,59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 123,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,8; 257,53</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 10,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 7,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 6,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,23; 11,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,31; 9,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 7,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,15; 9,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 7,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 6,51</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,76; 201,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 146,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 136,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,33; 176,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,04; 150,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,46; 131,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,1; 151,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,87; 119,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,36; 109,06</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 8,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 12,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 8,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 10,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 11,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 6,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 8,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 10,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,78; 129,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 151,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,58; 208,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 143,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 157,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,86; 204,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 97,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,84; 120,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,34; 160,72</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 8,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 9,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,58; 12,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 10,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,72; 12,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,88; 11,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 8,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 10,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,37; 10,25</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>169,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,2%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,2; 267,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,32; 313,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,28; 368,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,7; 285,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,29; 345,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,76; 315,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,6; 221,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,71; 261,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,31; 268,41</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,94</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 12,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 10,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 14,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,4; 19,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 13,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,07; 20,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,99; 13,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 10,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,91; 16,23</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>221,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>271,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,2%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>193,17%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 249,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 217,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,7; 335,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,92; 549,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,39; 388,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>116,27; 645,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,25; 283,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,41; 225,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,28; 344,44</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,43</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 12,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 8,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,51; 21,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 8,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,5; 3,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 10,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 8,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 4,32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,75; 14,37</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,48%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>335,28%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,43%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,24%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,76%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,11; 420,95</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,34; 257,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>140,5; 695,75</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 92,13</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,59; 38,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 121,82</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 133,13</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,89; 68,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,02; 228,14</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 8,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 5,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 8,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 6,5</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 3,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 45,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 6,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 3,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,35; 32,13</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,65%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>238,83%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,12%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,39; 182,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 110,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,33; 189,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 100,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,15; 53,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,34; 621,51</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,71; 110,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,46; 54,35</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,81; 561,32</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 3,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 5,73</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 6,68</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 4,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 5,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 6,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 3,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 4,74</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 5,59</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,87%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,9%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,4; 80,14</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,68; 123,25</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,77; 148,1</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,86; 56,59</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; 74,9</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 83,99</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,83; 52,1</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,2; 73,68</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,22; 91,57</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 5,91</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 4,75</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 7,92</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 5,77</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 4,56</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 16,76</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 5,39</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 4,32</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,02; 13,35</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,54%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,6%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,06%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,8%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,76; 112,69</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,47; 90,41</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,67; 151,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,68; 80,25</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,33; 62,5</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,85; 219,74</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,78; 84,04</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,61; 66,92</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,73; 191,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 9,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 14,07</t>
+          <t>4,15; 12,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 6,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 10,02</t>
+          <t>0,57; 9,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 6,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,99</t>
+          <t>3,74; 10,09</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>129,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>239,82%</t>
+          <t>212,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,71%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>132,49%</t>
+          <t>118,1%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,15; 355,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,03; 564,01</t>
+          <t>61,67; 508,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,61; 125,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 182,59</t>
+          <t>1,79; 172,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 161,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,8; 257,53</t>
+          <t>47,1; 238,71</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,66</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,88</t>
+          <t>-0,5; 6,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,74</t>
+          <t>0,64; 7,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,51</t>
+          <t>1,16; 6,03</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>44,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,72%</t>
+          <t>57,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>56,79%</t>
+          <t>51,46%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 136,31</t>
+          <t>-6,95; 124,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,46; 131,25</t>
+          <t>7,42; 127,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 109,06</t>
+          <t>13,42; 103,49</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,6</t>
+          <t>7,32</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,23</t>
+          <t>2,51; 11,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,95</t>
+          <t>3,1; 11,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,47</t>
+          <t>4,09; 10,23</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>90,91%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,58; 208,73</t>
+          <t>20,87; 200,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 204,34</t>
+          <t>27,36; 203,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,34; 160,72</t>
+          <t>41,53; 156,16</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>6,38</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,37</t>
+          <t>1,82; 10,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,28</t>
+          <t>3,12; 11,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,24</t>
+          <t>4,3; 12,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 11,03</t>
+          <t>0,13; 9,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,44</t>
+          <t>4,49; 10,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,25</t>
+          <t>3,05; 9,17</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>116,19%</t>
+          <t>130,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>169,89%</t>
+          <t>161,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>131,13%</t>
+          <t>160,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>150,56%</t>
+          <t>109,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>123,9%</t>
+          <t>146,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>160,2%</t>
+          <t>131,48%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,2; 267,05</t>
+          <t>26,68; 306,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>57,28; 368,95</t>
+          <t>51,0; 354,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,7; 285,13</t>
+          <t>58,55; 326,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,76; 315,42</t>
+          <t>10,0; 238,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>58,6; 221,69</t>
+          <t>69,38; 264,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88,31; 268,41</t>
+          <t>55,14; 236,04</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,94</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>12,83</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 14,83</t>
+          <t>3,67; 14,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,07; 20,67</t>
+          <t>11,4; 20,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,91; 16,23</t>
+          <t>9,0; 16,29</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>123,29%</t>
+          <t>123,66%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>271,91%</t>
+          <t>275,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>193,17%</t>
+          <t>195,04%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>29,7; 335,78</t>
+          <t>29,67; 336,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>116,27; 645,7</t>
+          <t>117,58; 653,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94,28; 344,44</t>
+          <t>96,12; 346,53</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>16,43</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>10,9</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11,51; 21,7</t>
+          <t>11,17; 21,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,34; 10,44</t>
+          <t>0,4; 10,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,75; 14,37</t>
+          <t>7,62; 14,23</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>335,28%</t>
+          <t>327,6%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>51,47%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>136,76%</t>
+          <t>135,11%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>140,5; 695,75</t>
+          <t>136,38; 684,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2,24; 121,82</t>
+          <t>2,31; 122,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>78,02; 228,14</t>
+          <t>77,08; 226,27</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>18,49</t>
+          <t>27,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>12,84</t>
+          <t>17,86</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,62; 8,72</t>
+          <t>2,28; 8,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,64; 45,94</t>
+          <t>5,36; 60,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,35; 32,13</t>
+          <t>4,94; 45,3</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>238,83%</t>
+          <t>350,41%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>190,12%</t>
+          <t>264,56%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>36,33; 189,14</t>
+          <t>31,21; 178,59</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>69,34; 621,51</t>
+          <t>66,81; 875,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>76,81; 561,32</t>
+          <t>72,54; 800,08</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>2,33</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,68</t>
+          <t>-3,34; 5,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,3; 6,01</t>
+          <t>0,56; 6,19</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,59</t>
+          <t>-1,26; 4,79</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>68,87%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>48,9%</t>
+          <t>32,0%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>16,77; 148,1</t>
+          <t>-42,57; 109,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,68; 83,99</t>
+          <t>3,88; 86,89</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>20,22; 91,57</t>
+          <t>-14,39; 71,69</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>8,22</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,92</t>
+          <t>2,74; 7,09</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>5,79; 16,76</t>
+          <t>5,39; 24,57</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>6,02; 13,35</t>
+          <t>5,18; 18,48</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>113,54%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>110,06%</t>
+          <t>134,93%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>112,8%</t>
+          <t>119,62%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>81,67; 151,61</t>
+          <t>50,14; 133,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>70,85; 219,74</t>
+          <t>66,64; 330,05</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>83,73; 191,46</t>
+          <t>73,92; 267,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 9,19</t>
+          <t>0,82; 9,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,66</t>
+          <t>-0,41; 7,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 12,82</t>
+          <t>4,43; 12,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 6,97</t>
+          <t>-3,26; 6,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 7,19</t>
+          <t>-2,95; 6,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 9,46</t>
+          <t>0,79; 9,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,72</t>
+          <t>0,53; 7,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,45</t>
+          <t>-0,37; 5,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 10,09</t>
+          <t>3,82; 9,76</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 355,68</t>
+          <t>8,1; 381,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 278,0</t>
+          <t>-11,25; 318,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,67; 508,4</t>
+          <t>72,85; 509,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 125,35</t>
+          <t>-32,55; 117,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 130,45</t>
+          <t>-29,84; 124,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 172,22</t>
+          <t>7,09; 184,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 161,24</t>
+          <t>6,53; 161,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 123,2</t>
+          <t>-5,33; 128,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,1; 238,71</t>
+          <t>52,3; 216,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,32</t>
+          <t>2,08; 9,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,19</t>
+          <t>0,34; 7,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,3</t>
+          <t>-0,8; 6,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,42</t>
+          <t>2,95; 11,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 9,02</t>
+          <t>1,68; 9,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,42</t>
+          <t>1,01; 7,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,53</t>
+          <t>3,87; 9,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,17</t>
+          <t>1,88; 7,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,03</t>
+          <t>1,19; 6,28</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,76; 201,54</t>
+          <t>24,22; 200,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 146,74</t>
+          <t>1,62; 143,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 124,29</t>
+          <t>-12,02; 121,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,33; 176,34</t>
+          <t>32,04; 180,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 150,47</t>
+          <t>17,23; 154,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 127,7</t>
+          <t>9,57; 134,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,1; 151,3</t>
+          <t>44,95; 156,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,87; 119,38</t>
+          <t>22,13; 121,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 103,49</t>
+          <t>14,22; 103,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 7,17</t>
+          <t>-2,04; 7,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 8,72</t>
+          <t>-0,28; 8,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 11,92</t>
+          <t>2,82; 11,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 8,91</t>
+          <t>-0,59; 8,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 10,01</t>
+          <t>0,04; 10,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,77</t>
+          <t>3,2; 11,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,55</t>
+          <t>0,09; 6,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 8,14</t>
+          <t>1,49; 8,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 10,23</t>
+          <t>4,09; 10,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 129,95</t>
+          <t>-21,8; 126,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 151,12</t>
+          <t>-2,78; 154,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 200,75</t>
+          <t>27,93; 212,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 143,64</t>
+          <t>-7,66; 136,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 157,19</t>
+          <t>-1,02; 159,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,36; 203,19</t>
+          <t>26,67; 195,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 97,6</t>
+          <t>-0,66; 98,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,84; 120,17</t>
+          <t>14,7; 126,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,53; 156,16</t>
+          <t>42,22; 164,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,42</t>
+          <t>2,06; 10,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,8</t>
+          <t>2,59; 10,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 11,64</t>
+          <t>3,57; 11,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 12,39</t>
+          <t>4,45; 12,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,72; 12,38</t>
+          <t>4,25; 12,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 9,27</t>
+          <t>0,54; 9,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,24</t>
+          <t>4,19; 10,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,04</t>
+          <t>4,32; 9,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 9,17</t>
+          <t>3,02; 9,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,68; 306,53</t>
+          <t>28,38; 312,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,32; 313,94</t>
+          <t>40,2; 346,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,0; 354,3</t>
+          <t>50,34; 389,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,55; 326,57</t>
+          <t>60,42; 352,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>52,29; 345,37</t>
+          <t>54,04; 333,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,0; 238,21</t>
+          <t>9,79; 235,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>69,38; 264,95</t>
+          <t>70,22; 267,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,71; 261,94</t>
+          <t>69,89; 255,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>55,14; 236,04</t>
+          <t>54,71; 238,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,61; 12,61</t>
+          <t>0,41; 12,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 10,35</t>
+          <t>-0,81; 11,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,67; 14,81</t>
+          <t>3,22; 14,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 19,2</t>
+          <t>6,66; 19,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 13,53</t>
+          <t>1,9; 12,88</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,4; 20,97</t>
+          <t>11,14; 20,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,99; 13,99</t>
+          <t>5,12; 13,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,26</t>
+          <t>2,25; 10,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,0; 16,29</t>
+          <t>9,06; 16,35</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 249,25</t>
+          <t>0,52; 265,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 217,1</t>
+          <t>-12,22; 239,39</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>29,67; 336,09</t>
+          <t>26,45; 314,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72,92; 549,16</t>
+          <t>71,32; 534,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>27,39; 388,57</t>
+          <t>17,42; 335,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>117,58; 653,45</t>
+          <t>125,12; 600,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>58,25; 283,27</t>
+          <t>58,99; 276,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>25,41; 225,35</t>
+          <t>26,26; 198,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>96,12; 346,53</t>
+          <t>101,25; 352,27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,78; 12,93</t>
+          <t>3,51; 12,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 8,18</t>
+          <t>-0,7; 7,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11,17; 21,25</t>
+          <t>11,19; 20,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 8,02</t>
+          <t>-3,27; 7,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 3,25</t>
+          <t>-7,04; 2,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,5</t>
+          <t>1,01; 10,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,84</t>
+          <t>1,38; 8,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,32</t>
+          <t>-2,73; 4,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,62; 14,23</t>
+          <t>7,17; 13,8</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>47,11; 420,95</t>
+          <t>39,05; 408,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 257,71</t>
+          <t>-15,09; 236,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>136,38; 684,55</t>
+          <t>148,99; 659,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 92,13</t>
+          <t>-23,21; 86,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-53,59; 38,63</t>
+          <t>-50,34; 35,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2,31; 122,13</t>
+          <t>5,64; 125,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,49; 133,13</t>
+          <t>13,94; 129,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 68,87</t>
+          <t>-27,32; 60,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>77,08; 226,27</t>
+          <t>74,4; 220,96</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,2</t>
+          <t>1,78; 7,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,18</t>
+          <t>-0,8; 4,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,29</t>
+          <t>1,94; 7,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 6,5</t>
+          <t>-0,05; 6,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,19</t>
+          <t>-3,1; 3,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,36; 60,26</t>
+          <t>5,52; 57,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,23</t>
+          <t>1,74; 6,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,13</t>
+          <t>-1,05; 3,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,94; 45,3</t>
+          <t>5,03; 47,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>26,39; 182,77</t>
+          <t>22,76; 173,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 110,87</t>
+          <t>-12,96; 105,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>31,21; 178,59</t>
+          <t>25,97; 181,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 100,06</t>
+          <t>-0,8; 106,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 53,04</t>
+          <t>-32,67; 50,6</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>66,81; 875,49</t>
+          <t>67,05; 1223,71</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>23,71; 110,09</t>
+          <t>22,59; 109,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 54,35</t>
+          <t>-13,92; 55,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>72,54; 800,08</t>
+          <t>71,96; 795,43</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,67</t>
+          <t>-1,58; 3,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,73</t>
+          <t>0,34; 5,59</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,59</t>
+          <t>-2,77; 5,49</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,11</t>
+          <t>-1,36; 4,49</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,57</t>
+          <t>-0,9; 5,59</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,56; 6,19</t>
+          <t>0,53; 6,26</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,28</t>
+          <t>-0,49; 3,11</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,74</t>
+          <t>0,83; 4,77</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,79</t>
+          <t>-2,39; 4,96</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 80,14</t>
+          <t>-21,95; 76,58</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>4,68; 123,25</t>
+          <t>4,66; 127,59</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 109,11</t>
+          <t>-43,42; 105,17</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 56,59</t>
+          <t>-13,74; 64,18</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 74,9</t>
+          <t>-8,64; 75,88</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>3,88; 86,89</t>
+          <t>4,87; 88,4</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 52,1</t>
+          <t>-7,1; 47,31</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,2; 73,68</t>
+          <t>8,99; 74,71</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 71,69</t>
+          <t>-22,01; 72,89</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,91</t>
+          <t>3,06; 5,76</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,75</t>
+          <t>2,3; 4,85</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,09</t>
+          <t>3,37; 7,25</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,77</t>
+          <t>2,82; 5,75</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,56</t>
+          <t>1,64; 4,57</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>5,39; 24,57</t>
+          <t>5,5; 26,72</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,39</t>
+          <t>3,45; 5,45</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,32</t>
+          <t>2,36; 4,39</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,48</t>
+          <t>5,37; 17,71</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>49,76; 112,69</t>
+          <t>47,88; 110,72</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>35,47; 90,41</t>
+          <t>36,33; 92,83</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>50,14; 133,61</t>
+          <t>56,76; 137,98</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>32,68; 80,25</t>
+          <t>32,37; 78,8</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,33; 62,5</t>
+          <t>19,12; 62,36</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>66,64; 330,05</t>
+          <t>68,62; 347,52</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>47,78; 84,04</t>
+          <t>46,58; 83,89</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>31,61; 66,92</t>
+          <t>31,85; 67,24</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>73,92; 267,78</t>
+          <t>76,44; 274,75</t>
         </is>
       </c>
     </row>
